--- a/Doc/DB.xlsx
+++ b/Doc/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github_proj\EcoCapture-Analytics\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B74039-C94B-4808-BEE7-5553D4FF1182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F4FC94-F58D-4B3E-AAED-BDF90CA59A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42645" yWindow="240" windowWidth="21645" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29985" yWindow="870" windowWidth="21645" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>comment</t>
   </si>
@@ -45,9 +45,6 @@
     <t>sia</t>
   </si>
   <si>
-    <t>traveler</t>
-  </si>
-  <si>
     <t>vote</t>
   </si>
   <si>
@@ -57,28 +54,34 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tourist details </t>
-  </si>
-  <si>
-    <t>Where tourist from</t>
-  </si>
-  <si>
-    <t>Given ratings</t>
-  </si>
-  <si>
-    <t>Comments from tourist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helpful votes given by others </t>
-  </si>
-  <si>
-    <t>Sentiment data: How they were feeling ,based on the comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations in Sri Lanka </t>
+    <t xml:space="preserve">Dates - from the source csv file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tourist details  - from the source csv file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where tourist from  - from the source csv file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations in Sri Lanka   - from the source csv file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given ratings  - from the source csv file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments from tourist  - from the source csv file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helpful votes given by others   - from the source csv file </t>
+  </si>
+  <si>
+    <t>traveller</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Generated Sentiment data: How they were feeling ,based on the comments</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,59 +422,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" customWidth="1"/>
+    <col min="2" max="2" width="85.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -479,7 +482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,20 +490,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
